--- a/DaySale_2025-05-26_21-54.xlsx
+++ b/DaySale_2025-05-26_21-54.xlsx
@@ -140,13 +140,13 @@
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>13.00</t>
   </si>
   <si>
-    <t>13.0000</t>
+    <t>26.0000</t>
   </si>
   <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
@@ -221,6 +221,18 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -392,6 +404,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -489,9 +513,6 @@
   </si>
   <si>
     <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -1473,7 +1494,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1720,7 +1741,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,14 +1751,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1770,7 +1791,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1786,7 +1807,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,11 +1817,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1862,14 +1883,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,7 +1932,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,11 +1982,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2010,7 +2031,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2027,11 +2048,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,11 +2081,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2182,7 +2203,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,31 +2526,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,11 +2576,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2584,15 +2605,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2604,7 +2625,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2621,11 +2642,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,31 +2757,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,31 +2790,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,31 +2823,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,31 +2856,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,7 +2889,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2881,18 +2902,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,28 +2922,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -2934,28 +2955,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2967,66 +2988,132 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3226.2399999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>180</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>181</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>182</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>151</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>184</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>21</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>151</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>19</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3278.0799999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>187</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>188</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>189</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3310,10 +3397,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
